--- a/modules/export.xlsx
+++ b/modules/export.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>L1 [m]</t>
+    <t>Lx [m]</t>
   </si>
   <si>
-    <t>L2 [m]</t>
+    <t>Ly [m]</t>
   </si>
   <si>
     <t>Espesor [m]</t>
@@ -31,7 +31,22 @@
     <t>fc</t>
   </si>
   <si>
-    <t>Madera</t>
+    <t>Acero</t>
+  </si>
+  <si>
+    <t>Frecuencia [Hz]</t>
+  </si>
+  <si>
+    <t>Modelo de Cremer</t>
+  </si>
+  <si>
+    <t>Modelo de Sharp</t>
+  </si>
+  <si>
+    <t>ISO 12354-1</t>
+  </si>
+  <si>
+    <t>Modelo de Davy</t>
   </si>
 </sst>
 </file>
@@ -102,6 +117,1018 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Export!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo de Cremer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Export!$B$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Export!$B$6:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.39</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38.35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>49.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>57.98</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Export!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo de Sharp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Export!$B$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Export!$B$7:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>16.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.01</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.76</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47.34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.87</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.49</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.94</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60.11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Export!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISO 12354-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Export!$B$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Export!$B$8:$AF$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>23.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.79</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.26</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33.18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36.82</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59.77</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Export!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modelo de Davy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Export!$B$5:$AF$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Export!$B$9:$AF$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>24.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34.29</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48.52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>53.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency [Hz]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R [dB]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,47 +1416,542 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A2:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="32" width="7.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:32">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:32">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>180</v>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="F3">
+        <v>1229.554398683235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>31.5</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>63</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>125</v>
+      </c>
+      <c r="K5">
+        <v>160</v>
+      </c>
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>250</v>
+      </c>
+      <c r="N5">
+        <v>315</v>
+      </c>
+      <c r="O5">
+        <v>400</v>
+      </c>
+      <c r="P5">
+        <v>500</v>
+      </c>
+      <c r="Q5">
+        <v>630</v>
+      </c>
+      <c r="R5">
+        <v>800</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>1250</v>
+      </c>
+      <c r="U5">
+        <v>1600</v>
+      </c>
+      <c r="V5">
+        <v>2000</v>
+      </c>
+      <c r="W5">
+        <v>2500</v>
+      </c>
+      <c r="X5">
+        <v>3150</v>
+      </c>
+      <c r="Y5">
+        <v>4000</v>
+      </c>
+      <c r="Z5">
+        <v>5000</v>
+      </c>
+      <c r="AA5">
+        <v>6300</v>
+      </c>
+      <c r="AB5">
+        <v>8000</v>
+      </c>
+      <c r="AC5">
+        <v>10000</v>
+      </c>
+      <c r="AD5">
+        <v>12500</v>
+      </c>
+      <c r="AE5">
+        <v>16000</v>
+      </c>
+      <c r="AF5">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>16.75</v>
+      </c>
+      <c r="C6">
+        <v>18.69</v>
+      </c>
+      <c r="D6">
+        <v>20.7</v>
+      </c>
+      <c r="E6">
+        <v>22.77</v>
+      </c>
+      <c r="F6">
+        <v>24.71</v>
+      </c>
+      <c r="G6">
+        <v>26.72</v>
+      </c>
+      <c r="H6">
+        <v>28.79</v>
+      </c>
+      <c r="I6">
+        <v>30.73</v>
+      </c>
+      <c r="J6">
+        <v>32.67</v>
+      </c>
+      <c r="K6">
+        <v>34.81</v>
+      </c>
+      <c r="L6">
+        <v>36.75</v>
+      </c>
+      <c r="M6">
+        <v>38.69</v>
+      </c>
+      <c r="N6">
+        <v>40.7</v>
+      </c>
+      <c r="O6">
+        <v>42.77</v>
+      </c>
+      <c r="P6">
+        <v>44.71</v>
+      </c>
+      <c r="Q6">
+        <v>46.72</v>
+      </c>
+      <c r="R6">
+        <v>48.79</v>
+      </c>
+      <c r="S6">
+        <v>50.73</v>
+      </c>
+      <c r="T6">
+        <v>12.54</v>
+      </c>
+      <c r="U6">
+        <v>26.75</v>
+      </c>
+      <c r="V6">
+        <v>31.39</v>
+      </c>
+      <c r="W6">
+        <v>35.03</v>
+      </c>
+      <c r="X6">
+        <v>38.35</v>
+      </c>
+      <c r="Y6">
+        <v>41.51</v>
+      </c>
+      <c r="Z6">
+        <v>44.33</v>
+      </c>
+      <c r="AA6">
+        <v>47.14</v>
+      </c>
+      <c r="AB6">
+        <v>49.98</v>
+      </c>
+      <c r="AC6">
+        <v>52.58</v>
+      </c>
+      <c r="AD6">
+        <v>55.16</v>
+      </c>
+      <c r="AE6">
+        <v>57.98</v>
+      </c>
+      <c r="AF6">
+        <v>60.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>16.08</v>
+      </c>
+      <c r="C7">
+        <v>18.01</v>
+      </c>
+      <c r="D7">
+        <v>20.01</v>
+      </c>
+      <c r="E7">
+        <v>22.08</v>
+      </c>
+      <c r="F7">
+        <v>24.01</v>
+      </c>
+      <c r="G7">
+        <v>26.02</v>
+      </c>
+      <c r="H7">
+        <v>28.09</v>
+      </c>
+      <c r="I7">
+        <v>30.03</v>
+      </c>
+      <c r="J7">
+        <v>31.97</v>
+      </c>
+      <c r="K7">
+        <v>34.11</v>
+      </c>
+      <c r="L7">
+        <v>36.05</v>
+      </c>
+      <c r="M7">
+        <v>37.99</v>
+      </c>
+      <c r="N7">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>42.07</v>
+      </c>
+      <c r="P7">
+        <v>44.01</v>
+      </c>
+      <c r="Q7">
+        <v>46.02</v>
+      </c>
+      <c r="R7">
+        <v>42.23</v>
+      </c>
+      <c r="S7">
+        <v>37.77</v>
+      </c>
+      <c r="T7">
+        <v>32.2</v>
+      </c>
+      <c r="U7">
+        <v>34.89</v>
+      </c>
+      <c r="V7">
+        <v>37.32</v>
+      </c>
+      <c r="W7">
+        <v>39.76</v>
+      </c>
+      <c r="X7">
+        <v>42.29</v>
+      </c>
+      <c r="Y7">
+        <v>44.9</v>
+      </c>
+      <c r="Z7">
+        <v>47.34</v>
+      </c>
+      <c r="AA7">
+        <v>49.87</v>
+      </c>
+      <c r="AB7">
+        <v>52.49</v>
+      </c>
+      <c r="AC7">
+        <v>54.94</v>
+      </c>
+      <c r="AD7">
+        <v>57.4</v>
+      </c>
+      <c r="AE7">
+        <v>60.11</v>
+      </c>
+      <c r="AF7">
+        <v>62.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>23.28</v>
+      </c>
+      <c r="C8">
+        <v>24.01</v>
+      </c>
+      <c r="D8">
+        <v>25.03</v>
+      </c>
+      <c r="E8">
+        <v>26.26</v>
+      </c>
+      <c r="F8">
+        <v>27.54</v>
+      </c>
+      <c r="G8">
+        <v>28.95</v>
+      </c>
+      <c r="H8">
+        <v>30.47</v>
+      </c>
+      <c r="I8">
+        <v>31.95</v>
+      </c>
+      <c r="J8">
+        <v>33.47</v>
+      </c>
+      <c r="K8">
+        <v>35.19</v>
+      </c>
+      <c r="L8">
+        <v>36.77</v>
+      </c>
+      <c r="M8">
+        <v>38.36</v>
+      </c>
+      <c r="N8">
+        <v>40.02</v>
+      </c>
+      <c r="O8">
+        <v>41.73</v>
+      </c>
+      <c r="P8">
+        <v>43.27</v>
+      </c>
+      <c r="Q8">
+        <v>44.8</v>
+      </c>
+      <c r="R8">
+        <v>45.79</v>
+      </c>
+      <c r="S8">
+        <v>43.26</v>
+      </c>
+      <c r="T8">
+        <v>26.18</v>
+      </c>
+      <c r="U8">
+        <v>28.87</v>
+      </c>
+      <c r="V8">
+        <v>33.18</v>
+      </c>
+      <c r="W8">
+        <v>36.82</v>
+      </c>
+      <c r="X8">
+        <v>40.14</v>
+      </c>
+      <c r="Y8">
+        <v>43.3</v>
+      </c>
+      <c r="Z8">
+        <v>46.12</v>
+      </c>
+      <c r="AA8">
+        <v>48.93</v>
+      </c>
+      <c r="AB8">
+        <v>51.77</v>
+      </c>
+      <c r="AC8">
+        <v>54.37</v>
+      </c>
+      <c r="AD8">
+        <v>56.95</v>
+      </c>
+      <c r="AE8">
+        <v>59.77</v>
+      </c>
+      <c r="AF8">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>24.76</v>
+      </c>
+      <c r="C9">
+        <v>24.99</v>
+      </c>
+      <c r="D9">
+        <v>25.72</v>
+      </c>
+      <c r="E9">
+        <v>26.76</v>
+      </c>
+      <c r="F9">
+        <v>27.89</v>
+      </c>
+      <c r="G9">
+        <v>29.18</v>
+      </c>
+      <c r="H9">
+        <v>30.6</v>
+      </c>
+      <c r="I9">
+        <v>31.98</v>
+      </c>
+      <c r="J9">
+        <v>33.4</v>
+      </c>
+      <c r="K9">
+        <v>34.98</v>
+      </c>
+      <c r="L9">
+        <v>36.43</v>
+      </c>
+      <c r="M9">
+        <v>37.86</v>
+      </c>
+      <c r="N9">
+        <v>39.32</v>
+      </c>
+      <c r="O9">
+        <v>40.76</v>
+      </c>
+      <c r="P9">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>43.08</v>
+      </c>
+      <c r="R9">
+        <v>43.72</v>
+      </c>
+      <c r="S9">
+        <v>43.08</v>
+      </c>
+      <c r="T9">
+        <v>21.16</v>
+      </c>
+      <c r="U9">
+        <v>25.96</v>
+      </c>
+      <c r="V9">
+        <v>29.1</v>
+      </c>
+      <c r="W9">
+        <v>31.75</v>
+      </c>
+      <c r="X9">
+        <v>34.29</v>
+      </c>
+      <c r="Y9">
+        <v>36.8</v>
+      </c>
+      <c r="Z9">
+        <v>39.1</v>
+      </c>
+      <c r="AA9">
+        <v>41.47</v>
+      </c>
+      <c r="AB9">
+        <v>43.91</v>
+      </c>
+      <c r="AC9">
+        <v>46.21</v>
+      </c>
+      <c r="AD9">
+        <v>48.52</v>
+      </c>
+      <c r="AE9">
+        <v>51.1</v>
+      </c>
+      <c r="AF9">
+        <v>53.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>